--- a/REPL.xlsx
+++ b/REPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C1E2C5-6CBF-4C76-AE5F-090A8B80C12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75226B03-9531-4E09-9712-FAC415945205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30495" yWindow="390" windowWidth="29955" windowHeight="20700" activeTab="1" xr2:uid="{B03E64F7-0E48-46C0-A539-9277124F6AAF}"/>
+    <workbookView xWindow="38400" yWindow="6700" windowWidth="28800" windowHeight="15050" activeTab="1" xr2:uid="{B03E64F7-0E48-46C0-A539-9277124F6AAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Price</t>
   </si>
@@ -57,9 +57,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -96,10 +93,22 @@
     <t>2H2024: File IGNYTE</t>
   </si>
   <si>
-    <t>Phase II "IGYNTE"</t>
-  </si>
-  <si>
     <t>Phase III "IGNYTE-3" with nivo vs BAT</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>CMO</t>
+  </si>
+  <si>
+    <t>Kostas Xynos</t>
+  </si>
+  <si>
+    <t>n=140 cohort PD-1 failures, 33% ORR, 15% CR</t>
+  </si>
+  <si>
+    <t>Phase II "IGYNTE" PD-1 failed melanoma - NCT03767348</t>
   </si>
 </sst>
 </file>
@@ -236,14 +245,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -594,162 +602,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CECAEB-CD01-40D1-A1E9-0F2409DA5685}">
   <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>11.13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+        <v>12.71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <v>68.3</v>
+        <v>77.086749999999995</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="H4" s="4"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="3">
         <f>+K2*K3</f>
-        <v>760.17899999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+        <v>979.77259249999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="H5" s="4"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="3">
-        <f>151.658+317.466</f>
-        <v>469.12400000000002</v>
+        <f>111.119+372.685</f>
+        <v>483.80399999999997</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="H6" s="4"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="3">
-        <v>45.192</v>
+        <v>46.377000000000002</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="H7" s="4"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="3">
         <f>+K4-K5+K6</f>
-        <v>336.24699999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
+        <v>542.34559249999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="H9" s="4"/>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9">
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -764,58 +744,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7EE7EE-C792-4C37-9108-7D672C853EB7}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="15" t="s">
-        <v>20</v>
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C10" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
